--- a/user_files/hilarytn/facility2/source2/master_file.xlsx
+++ b/user_files/hilarytn/facility2/source2/master_file.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Line:9 Stage:1</t>
+          <t>Line:8 Stage:1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -497,27 +497,27 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45300.40887037037</v>
+        <v>45300.42056299769</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45300.40910185185</v>
+        <v>45300.42067873842</v>
       </c>
       <c r="F2" t="n">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16f3eae8-6f06-4f71-a5e8-9a84d202ec26</t>
+          <t>2b1ef34e-1545-47d2-9511-6f993db986ca</t>
         </is>
       </c>
       <c r="H2" s="3" t="n">
-        <v>0.0002314814814814815</v>
+        <v>0.0001157407407407407</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Line:9 Stage:1</t>
+          <t>Line:8 Stage:1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -527,25 +527,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pri pH flows</t>
+          <t>pri pH HA</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45300.49280315972</v>
+        <v>45300.65476473379</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45300.49893741898</v>
+        <v>45300.65488047454</v>
       </c>
       <c r="F3" t="n">
-        <v>8.83</v>
+        <v>0.17</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>16f3eae8-6f06-4f71-a5e8-9a84d202ec26</t>
+          <t>2b1ef34e-1545-47d2-9511-6f993db986ca</t>
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>0.006134259259259259</v>
+        <v>0.0001157407407407407</v>
       </c>
     </row>
     <row r="4">
@@ -561,25 +561,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pri pH flows</t>
+          <t>pri cl LA</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45300.50241207176</v>
+        <v>45300.40887037037</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45300.50287503472</v>
+        <v>45300.40910185185</v>
       </c>
       <c r="F4" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>16f3eae8-6f06-4f71-a5e8-9a84d202ec26</t>
+          <t>2b1ef34e-1545-47d2-9511-6f993db986ca</t>
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>0.000462962962962963</v>
+        <v>0.0002314814814814815</v>
       </c>
     </row>
     <row r="5">
@@ -599,21 +599,21 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45300.50356979167</v>
+        <v>45300.49280315972</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45300.50368553241</v>
+        <v>45300.49893741898</v>
       </c>
       <c r="F5" t="n">
-        <v>0.17</v>
+        <v>8.83</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>16f3eae8-6f06-4f71-a5e8-9a84d202ec26</t>
+          <t>2b1ef34e-1545-47d2-9511-6f993db986ca</t>
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>0.006134259259259259</v>
       </c>
     </row>
     <row r="6">
@@ -633,21 +633,21 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45300.50438012731</v>
+        <v>45300.50241207176</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45300.50449586806</v>
+        <v>45300.50287503472</v>
       </c>
       <c r="F6" t="n">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>16f3eae8-6f06-4f71-a5e8-9a84d202ec26</t>
+          <t>2b1ef34e-1545-47d2-9511-6f993db986ca</t>
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>0.000462962962962963</v>
       </c>
     </row>
     <row r="7">
@@ -667,27 +667,27 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45300.50519054398</v>
+        <v>45300.50356979167</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45300.50715813658</v>
+        <v>45300.50368553241</v>
       </c>
       <c r="F7" t="n">
-        <v>2.83</v>
+        <v>0.17</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>16f3eae8-6f06-4f71-a5e8-9a84d202ec26</t>
+          <t>2b1ef34e-1545-47d2-9511-6f993db986ca</t>
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>0.001967592592592592</v>
+        <v>0.0001157407407407407</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Line:8 Stage:1</t>
+          <t>Line:9 Stage:1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -697,21 +697,21 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>pri cl LA</t>
+          <t>Pri pH flows</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45300.42056299769</v>
+        <v>45300.50438012731</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45300.42067873842</v>
+        <v>45300.50449586806</v>
       </c>
       <c r="F8" t="n">
         <v>0.17</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>16f3eae8-6f06-4f71-a5e8-9a84d202ec26</t>
+          <t>2b1ef34e-1545-47d2-9511-6f993db986ca</t>
         </is>
       </c>
       <c r="H8" s="3" t="n">
@@ -721,7 +721,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Line:8 Stage:1</t>
+          <t>Line:9 Stage:1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -731,191 +731,191 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>pri pH HA</t>
+          <t>Pri pH flows</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45300.65476473379</v>
+        <v>45300.50519054398</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45300.65488047454</v>
+        <v>45300.50715813658</v>
       </c>
       <c r="F9" t="n">
-        <v>0.17</v>
+        <v>2.83</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>16f3eae8-6f06-4f71-a5e8-9a84d202ec26</t>
+          <t>2b1ef34e-1545-47d2-9511-6f993db986ca</t>
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>0.001967592592592592</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Line:9 Stage:1</t>
+          <t>Line:3 Stage:1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>01/09/2024</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>pri cl LA</t>
+          <t>SEC Cl</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45300.40887037037</v>
+        <v>45271.36145825232</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45300.40910185185</v>
+        <v>45271.36158556713</v>
       </c>
       <c r="F10" t="n">
-        <v>0.33</v>
+        <v>0.18</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>16f3eae8-6f06-4f71-a5e8-9a84d202ec26</t>
+          <t>2b1ef34e-1545-47d2-9511-6f993db986ca</t>
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>0.0002314814814814815</v>
+        <v>0.0001273148148148148</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Line:9 Stage:1</t>
+          <t>Line:3 Stage:1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>01/09/2024</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Pri pH flows</t>
+          <t>PRI pH</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45300.49280315972</v>
+        <v>45271.68537890046</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45300.49893741898</v>
+        <v>45271.68549464121</v>
       </c>
       <c r="F11" t="n">
-        <v>8.83</v>
+        <v>0.17</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>16f3eae8-6f06-4f71-a5e8-9a84d202ec26</t>
+          <t>2b1ef34e-1545-47d2-9511-6f993db986ca</t>
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>0.006134259259259259</v>
+        <v>0.0001157407407407407</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Line:9 Stage:1</t>
+          <t>Line:3 Stage:1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>01/09/2024</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Pri pH flows</t>
+          <t>PRI pH SEC pH</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45300.50241207176</v>
+        <v>45271.68549475694</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45300.50287503472</v>
+        <v>45271.68769383102</v>
       </c>
       <c r="F12" t="n">
-        <v>0.67</v>
+        <v>3.17</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>16f3eae8-6f06-4f71-a5e8-9a84d202ec26</t>
+          <t>2b1ef34e-1545-47d2-9511-6f993db986ca</t>
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>0.000462962962962963</v>
+        <v>0.002199074074074074</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Line:9 Stage:1</t>
+          <t>Line:3 Stage:1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>01/09/2024</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Pri pH flows</t>
+          <t>PRI pH&amp;rem SEC pH</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45300.50356979167</v>
+        <v>45271.6876965625</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45300.50368553241</v>
+        <v>45271.68898128472</v>
       </c>
       <c r="F13" t="n">
-        <v>0.17</v>
+        <v>1.85</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>16f3eae8-6f06-4f71-a5e8-9a84d202ec26</t>
+          <t>2b1ef34e-1545-47d2-9511-6f993db986ca</t>
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>0.0001157407407407407</v>
+        <v>0.001284722222222222</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Line:9 Stage:1</t>
+          <t>Line:3 Stage:1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>01/09/2024</t>
+          <t>12/11/2023</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Pri pH flows</t>
+          <t>PRI pH&amp;rem SEC pH&amp;rem</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45300.50438012731</v>
+        <v>45271.68897129629</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45300.50449586806</v>
+        <v>45271.68908703703</v>
       </c>
       <c r="F14" t="n">
         <v>0.17</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>16f3eae8-6f06-4f71-a5e8-9a84d202ec26</t>
+          <t>2b1ef34e-1545-47d2-9511-6f993db986ca</t>
         </is>
       </c>
       <c r="H14" s="3" t="n">
@@ -925,35 +925,171 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Line:9 Stage:1</t>
+          <t>Line:3 Stage:1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PRI pH SEC pH</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>45271.6890871875</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>45271.68920292824</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2b1ef34e-1545-47d2-9511-6f993db986ca</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PRI pH SEC pH</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>45271.89825825232</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45271.8996471412</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2b1ef34e-1545-47d2-9511-6f993db986ca</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>0.001388888888888889</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Line:3 Stage:1</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>12/11/2023</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>PRI Cl&amp;pH</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>45272.09804105324</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45272.09827253472</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2b1ef34e-1545-47d2-9511-6f993db986ca</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>0.0002314814814814815</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Line:8 Stage:1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>01/09/2024</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Pri pH flows</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>45300.50519054398</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>45300.50715813658</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>16f3eae8-6f06-4f71-a5e8-9a84d202ec26</t>
-        </is>
-      </c>
-      <c r="H15" s="3" t="n">
-        <v>0.001967592592592592</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>pri cl LA</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>45300.42056299769</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45300.42067873842</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2b1ef34e-1545-47d2-9511-6f993db986ca</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>0.0001157407407407407</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Line:8 Stage:1</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>pri pH HA</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45300.65476473379</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45300.65488047454</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2b1ef34e-1545-47d2-9511-6f993db986ca</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>0.0001157407407407407</v>
       </c>
     </row>
   </sheetData>
